--- a/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Johana Quimbay.xlsx
+++ b/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Johana Quimbay.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,11 +393,6 @@
           <t>Revisar</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Observación</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1662,11 +1657,6 @@
       <c r="F47">
         <v>-7500</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Caldo</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1687,11 +1677,6 @@
       <c r="F48">
         <v>-73800</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>compra organic</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1711,11 +1696,6 @@
       </c>
       <c r="F49">
         <v>-31733</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Dryll 1 de 3</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Johana Quimbay.xlsx
+++ b/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Johana Quimbay.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1698,6 +1698,26 @@
         <v>-31733</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-10-05</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Descuento - Producto - Ajuste Quincena Pasada</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Johana Quimbay</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>-27000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
